--- a/src/main/java/com/testdata/Logindata.xlsx
+++ b/src/main/java/com/testdata/Logindata.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6ac218ac8a2581a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{95D8DA39-DAC5-4003-9076-FEE44E753CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A52148E-76DB-435C-B7BD-31F9C9851F02}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{95D8DA39-DAC5-4003-9076-FEE44E753CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E0164FC-D58A-4EFA-93C8-61C3CE1A294A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{942181A9-A18C-4CD1-ABA4-FBA23C1A1469}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{942181A9-A18C-4CD1-ABA4-FBA23C1A1469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Addingproduct" sheetId="2" r:id="rId2"/>
+    <sheet name="Addcondition" sheetId="3" r:id="rId3"/>
+    <sheet name="Editcondition" sheetId="4" r:id="rId4"/>
+    <sheet name="Deletecondition" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -67,12 +70,6 @@
     <t>SKDT</t>
   </si>
   <si>
-    <t>illfordd furniture</t>
-  </si>
-  <si>
-    <t>11A234GRS2</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -97,21 +94,9 @@
     <t>breadth</t>
   </si>
   <si>
-    <t>Bedroom</t>
-  </si>
-  <si>
-    <t>MS-01</t>
-  </si>
-  <si>
-    <t>SkWoods</t>
-  </si>
-  <si>
     <t>teak-wood</t>
   </si>
   <si>
-    <t>illfordd</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>InvoiceNo</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>To Be Sold</t>
   </si>
   <si>
@@ -145,7 +127,61 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>10/20/2023</t>
+    <t>office chair</t>
+  </si>
+  <si>
+    <t>bravo HB</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>stolia</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>09/22/2023</t>
+  </si>
+  <si>
+    <t>stolia chair</t>
+  </si>
+  <si>
+    <t>11A234GRs5</t>
+  </si>
+  <si>
+    <t>ConditionName</t>
+  </si>
+  <si>
+    <t>Wow</t>
+  </si>
+  <si>
+    <t>not bad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>EditedConditionname</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>satisfactory</t>
+  </si>
+  <si>
+    <t>quite good</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
   </si>
 </sst>
 </file>
@@ -210,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -254,6 +293,14 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -623,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C7C433-74F7-48E3-8958-0F3980D92F99}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -640,43 +687,43 @@
   <sheetData>
     <row r="1" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>7</v>
@@ -691,76 +738,76 @@
         <v>10</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5">
-        <v>182.9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5">
-        <v>35.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H2" s="5">
-        <v>61</v>
+        <v>45.5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O2" s="6">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="P2" s="5">
-        <v>68132</v>
+        <v>68156</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="T2" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U2" s="4"/>
     </row>
@@ -1112,4 +1159,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656B93D-B59E-47D5-8CF0-075034591676}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98E289-39C9-430D-A281-9F3DE2858152}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D62A3F-3DC1-4FB3-ABA2-DE17693075B4}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>